--- a/Direcciones Edificios.xlsx
+++ b/Direcciones Edificios.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\OneDrive\Documentos\papucho\2020\8vo Ciclo\Redes I\Proyecto Final\Repositorio\Redes2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0E666E-CC7A-492C-8DAC-E59A6188FB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{CA9574F7-9CAA-4235-967D-6F8E4D2511AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TEC" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
     <sheet name="Q" sheetId="7" r:id="rId7"/>
     <sheet name="G" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,8 +38,16 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>adios</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A8F579-8D8A-457B-80B4-2A55DE1E4F8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -399,21 +406,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5795D56A-7B92-424E-BF7E-E5EAD0566714}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B5B848-C762-4BB8-A5E9-804720A71AA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -425,7 +438,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1702B447-9325-48A4-8FD6-21B08B13370F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -437,7 +450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A5FE1A0-2D8C-499D-9898-1C8ECE2C7EC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -449,7 +462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37346CC-73CC-4A15-B6F4-0DAA439A2F29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -461,7 +474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6CC4CB0-D49E-4C50-AE0E-6A8EB0DE21CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -473,7 +486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC08306-A300-4554-8CA7-B157C67447FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Direcciones Edificios.xlsx
+++ b/Direcciones Edificios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\OneDrive\Documentos\papucho\2020\8vo Ciclo\Redes I\Proyecto Final\Repositorio\Redes2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hichi\Documents\GitHub\Redes2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C0E666E-CC7A-492C-8DAC-E59A6188FB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781F5E79-F0FE-4E18-B600-7FDAE0DEEE0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{CA9574F7-9CAA-4235-967D-6F8E4D2511AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{CA9574F7-9CAA-4235-967D-6F8E4D2511AB}"/>
   </bookViews>
   <sheets>
     <sheet name="TEC" sheetId="1" r:id="rId1"/>
@@ -37,6 +37,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
+  <si>
+    <t>Hola</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,7 +410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5795D56A-7B92-424E-BF7E-E5EAD0566714}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -414,12 +422,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B5B848-C762-4BB8-A5E9-804720A71AA1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <dimension ref="B4:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
